--- a/docs/all/idx2_Adultez_loadings_y_tops.xlsx
+++ b/docs/all/idx2_Adultez_loadings_y_tops.xlsx
@@ -354,7 +354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,13 +399,13 @@
         </is>
       </c>
       <c r="C2">
-        <v>-0.02024926649513285</v>
+        <v>-0.06778562402479275</v>
       </c>
       <c r="D2">
-        <v>0.01000895988881365</v>
+        <v>0.03429685937311488</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="3">
@@ -420,19 +420,19 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.1140676815034847</v>
+        <v>0.04571147423898823</v>
       </c>
       <c r="D3">
-        <v>0.05638223236643015</v>
+        <v>0.02312820787987333</v>
       </c>
       <c r="E3">
-        <v>5.6</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tasa participación (mujeres)</t>
+          <t>Brecha desocupación M–H</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -441,19 +441,19 @@
         </is>
       </c>
       <c r="C4">
-        <v>-0.1880250060164713</v>
+        <v>-0.5810623274386817</v>
       </c>
       <c r="D4">
-        <v>0.09293841551076193</v>
+        <v>0.2939946812895071</v>
       </c>
       <c r="E4">
-        <v>9.300000000000001</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brecha desocupación M–H</t>
+          <t>Tasa de desocupación (M)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -462,19 +462,19 @@
         </is>
       </c>
       <c r="C5">
-        <v>-0.6118985127676729</v>
+        <v>-0.6793163730964967</v>
       </c>
       <c r="D5">
-        <v>0.302453803538437</v>
+        <v>0.3437073635174257</v>
       </c>
       <c r="E5">
-        <v>30.2</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tasa de desocupación (M)</t>
+          <t>Tasa de desocupación (H)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -483,19 +483,19 @@
         </is>
       </c>
       <c r="C6">
-        <v>-0.6820853452516495</v>
+        <v>-0.3808760192753231</v>
       </c>
       <c r="D6">
-        <v>0.3371462794967073</v>
+        <v>0.1927082837933273</v>
       </c>
       <c r="E6">
-        <v>33.7</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tasa de desocupación (H)</t>
+          <t>Tasa empleo informal</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -504,40 +504,40 @@
         </is>
       </c>
       <c r="C7">
-        <v>-0.3234495220933363</v>
+        <v>0.2216864116584823</v>
       </c>
       <c r="D7">
-        <v>0.1598770648539933</v>
+        <v>0.1121646041467517</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tasa empleo informal</t>
+          <t>% afiliación salud (H)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PC1</t>
+          <t>PC2</t>
         </is>
       </c>
       <c r="C8">
-        <v>0.08333862776994275</v>
+        <v>0.5408307431833098</v>
       </c>
       <c r="D8">
-        <v>0.04119324434485674</v>
+        <v>0.2509621215941336</v>
       </c>
       <c r="E8">
-        <v>4.1</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>% afiliación salud (H)</t>
+          <t>% afiliación salud (M)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -546,19 +546,19 @@
         </is>
       </c>
       <c r="C9">
-        <v>0.2440076416759556</v>
+        <v>0.05248996266043719</v>
       </c>
       <c r="D9">
-        <v>0.1101254569343237</v>
+        <v>0.02435695928475593</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>% afiliación salud (M)</t>
+          <t>Brecha desocupación M–H</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -567,19 +567,19 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.2824004463307596</v>
+        <v>-0.3855091735178679</v>
       </c>
       <c r="D10">
-        <v>0.1274528862171138</v>
+        <v>0.1788881296033372</v>
       </c>
       <c r="E10">
-        <v>12.7</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tasa participación (mujeres)</t>
+          <t>Tasa de desocupación (M)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -588,19 +588,19 @@
         </is>
       </c>
       <c r="C11">
-        <v>-0.5915429117317321</v>
+        <v>-0.1557319495454698</v>
       </c>
       <c r="D11">
-        <v>0.2669749726003623</v>
+        <v>0.07226442089419997</v>
       </c>
       <c r="E11">
-        <v>26.7</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Brecha desocupación M–H</t>
+          <t>Tasa de desocupación (H)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -609,19 +609,19 @@
         </is>
       </c>
       <c r="C12">
-        <v>-0.09141783802087723</v>
+        <v>0.4354001382697359</v>
       </c>
       <c r="D12">
-        <v>0.04125867171556345</v>
+        <v>0.2020390738133691</v>
       </c>
       <c r="E12">
-        <v>4.1</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Tasa de desocupación (M)</t>
+          <t>Tasa empleo informal</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -630,61 +630,61 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.05616657711127834</v>
+        <v>-0.5850674043789553</v>
       </c>
       <c r="D13">
-        <v>0.02534908303007443</v>
+        <v>0.2714892948102043</v>
       </c>
       <c r="E13">
-        <v>2.5</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tasa de desocupación (H)</t>
+          <t>% afiliación salud (H)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PC2</t>
+          <t>PC3</t>
         </is>
       </c>
       <c r="C14">
-        <v>0.3204238498834052</v>
+        <v>-0.4524667359920909</v>
       </c>
       <c r="D14">
-        <v>0.144613597503337</v>
+        <v>0.2734576352989371</v>
       </c>
       <c r="E14">
-        <v>14.5</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Tasa empleo informal</t>
+          <t>% afiliación salud (M)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PC2</t>
+          <t>PC3</t>
         </is>
       </c>
       <c r="C15">
-        <v>-0.6297649507784306</v>
+        <v>0.8399924509000362</v>
       </c>
       <c r="D15">
-        <v>0.2842253319992254</v>
+        <v>0.5076668206082173</v>
       </c>
       <c r="E15">
-        <v>28.4</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>% afiliación salud (H)</t>
+          <t>Brecha desocupación M–H</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -693,19 +693,19 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.6564362127431124</v>
+        <v>-0.02201008785333764</v>
       </c>
       <c r="D16">
-        <v>0.315372848715946</v>
+        <v>0.01330225207362156</v>
       </c>
       <c r="E16">
-        <v>31.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>% afiliación salud (M)</t>
+          <t>Tasa de desocupación (M)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -714,19 +714,19 @@
         </is>
       </c>
       <c r="C17">
-        <v>-0.6422176620721487</v>
+        <v>-0.0006344073445452792</v>
       </c>
       <c r="D17">
-        <v>0.3085418044458934</v>
+        <v>0.0003834172071793198</v>
       </c>
       <c r="E17">
-        <v>30.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Tasa participación (mujeres)</t>
+          <t>Tasa de desocupación (H)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="C18">
-        <v>0.1676523306932861</v>
+        <v>0.0441202359585189</v>
       </c>
       <c r="D18">
-        <v>0.08054551546396876</v>
+        <v>0.02666497763110393</v>
       </c>
       <c r="E18">
-        <v>8.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Brecha desocupación M–H</t>
+          <t>Tasa empleo informal</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -756,82 +756,82 @@
         </is>
       </c>
       <c r="C19">
-        <v>-0.2292854183848967</v>
+        <v>-0.2953897316945672</v>
       </c>
       <c r="D19">
-        <v>0.1101560123608996</v>
+        <v>0.1785248971809407</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Tasa de desocupación (M)</t>
+          <t>% afiliación salud (H)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PC3</t>
+          <t>PC4</t>
         </is>
       </c>
       <c r="C20">
-        <v>-0.09353796782428266</v>
+        <v>-0.5265145207750164</v>
       </c>
       <c r="D20">
-        <v>0.04493861673561982</v>
+        <v>0.2568220149017751</v>
       </c>
       <c r="E20">
-        <v>4.5</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Tasa de desocupación (H)</t>
+          <t>% afiliación salud (M)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PC3</t>
+          <t>PC4</t>
         </is>
       </c>
       <c r="C21">
-        <v>0.2568244244855455</v>
+        <v>-0.2470028193825836</v>
       </c>
       <c r="D21">
-        <v>0.123386627363802</v>
+        <v>0.1204824544380627</v>
       </c>
       <c r="E21">
-        <v>12.3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tasa empleo informal</t>
+          <t>Brecha desocupación M–H</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PC3</t>
+          <t>PC4</t>
         </is>
       </c>
       <c r="C22">
-        <v>-0.03550675448710448</v>
+        <v>-0.3347703911140005</v>
       </c>
       <c r="D22">
-        <v>0.01705857491387053</v>
+        <v>0.1632935142012755</v>
       </c>
       <c r="E22">
-        <v>1.7</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>% afiliación salud (H)</t>
+          <t>Tasa de desocupación (M)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -840,19 +840,19 @@
         </is>
       </c>
       <c r="C23">
-        <v>0.4054511317745069</v>
+        <v>0.004244715392230509</v>
       </c>
       <c r="D23">
-        <v>0.1983983360656077</v>
+        <v>0.002070477293033749</v>
       </c>
       <c r="E23">
-        <v>19.8</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>% afiliación salud (M)</t>
+          <t>Tasa de desocupación (H)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -861,19 +861,19 @@
         </is>
       </c>
       <c r="C24">
-        <v>-0.09019787861274049</v>
+        <v>0.7034746539866523</v>
       </c>
       <c r="D24">
-        <v>0.04413629074136562</v>
+        <v>0.3431392125771623</v>
       </c>
       <c r="E24">
-        <v>4.4</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Tasa participación (mujeres)</t>
+          <t>Tasa empleo informal</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -882,103 +882,103 @@
         </is>
       </c>
       <c r="C25">
-        <v>-0.2111472217450252</v>
+        <v>0.2341073374610187</v>
       </c>
       <c r="D25">
-        <v>0.1033201147466198</v>
+        <v>0.1141923265886907</v>
       </c>
       <c r="E25">
-        <v>10.3</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Brecha desocupación M–H</t>
+          <t>% afiliación salud (H)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PC4</t>
+          <t>PC5</t>
         </is>
       </c>
       <c r="C26">
-        <v>0.4008515706038194</v>
+        <v>0.4700675787980668</v>
       </c>
       <c r="D26">
-        <v>0.1961476448937703</v>
+        <v>0.2318506078645532</v>
       </c>
       <c r="E26">
-        <v>19.6</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Tasa de desocupación (M)</t>
+          <t>% afiliación salud (M)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PC4</t>
+          <t>PC5</t>
         </is>
       </c>
       <c r="C27">
-        <v>0.02309731249342477</v>
+        <v>0.478076933757329</v>
       </c>
       <c r="D27">
-        <v>0.01130214718165198</v>
+        <v>0.2358010479707526</v>
       </c>
       <c r="E27">
-        <v>1.1</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Tasa de desocupación (H)</t>
+          <t>Brecha desocupación M–H</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PC4</t>
+          <t>PC5</t>
         </is>
       </c>
       <c r="C28">
-        <v>-0.7765970765120107</v>
+        <v>-0.0364049067333566</v>
       </c>
       <c r="D28">
-        <v>0.3800102051733526</v>
+        <v>0.01795592833048159</v>
       </c>
       <c r="E28">
-        <v>38</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Tasa empleo informal</t>
+          <t>Tasa de desocupación (M)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PC4</t>
+          <t>PC5</t>
         </is>
       </c>
       <c r="C29">
-        <v>-0.1362794424662789</v>
+        <v>0.08535921631625994</v>
       </c>
       <c r="D29">
-        <v>0.06668526119763189</v>
+        <v>0.04210157662940728</v>
       </c>
       <c r="E29">
-        <v>6.7</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>% afiliación salud (H)</t>
+          <t>Tasa de desocupación (H)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -987,19 +987,19 @@
         </is>
       </c>
       <c r="C30">
-        <v>0.5847826915229921</v>
+        <v>0.2745495866908937</v>
       </c>
       <c r="D30">
-        <v>0.2925447448938822</v>
+        <v>0.135415611359554</v>
       </c>
       <c r="E30">
-        <v>29.3</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>% afiliación salud (M)</t>
+          <t>Tasa empleo informal</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1008,124 +1008,124 @@
         </is>
       </c>
       <c r="C31">
-        <v>0.6825573531083285</v>
+        <v>0.6830006794839831</v>
       </c>
       <c r="D31">
-        <v>0.3414577237580032</v>
+        <v>0.3368752278452513</v>
       </c>
       <c r="E31">
-        <v>34.1</v>
+        <v>33.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tasa participación (mujeres)</t>
+          <t>% afiliación salud (H)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PC5</t>
+          <t>PC6</t>
         </is>
       </c>
       <c r="C32">
-        <v>0.2606052899458612</v>
+        <v>3.261618493709613E-09</v>
       </c>
       <c r="D32">
-        <v>0.1303710064787556</v>
+        <v>1.977227822640332E-09</v>
       </c>
       <c r="E32">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Brecha desocupación M–H</t>
+          <t>% afiliación salud (M)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PC5</t>
+          <t>PC6</t>
         </is>
       </c>
       <c r="C33">
-        <v>-0.009301202380644861</v>
+        <v>1.754491578514423E-09</v>
       </c>
       <c r="D33">
-        <v>0.004653041064819438</v>
+        <v>1.063591456302223E-09</v>
       </c>
       <c r="E33">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tasa de desocupación (M)</t>
+          <t>Brecha desocupación M–H</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PC5</t>
+          <t>PC6</t>
         </is>
       </c>
       <c r="C34">
-        <v>0.03111698957708049</v>
+        <v>0.6323513839606231</v>
       </c>
       <c r="D34">
-        <v>0.01556665734066907</v>
+        <v>0.3833381348748813</v>
       </c>
       <c r="E34">
-        <v>1.6</v>
+        <v>38.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tasa de desocupación (H)</t>
+          <t>Tasa de desocupación (M)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PC5</t>
+          <t>PC6</t>
         </is>
       </c>
       <c r="C35">
-        <v>0.09185996353318458</v>
+        <v>-0.7120198095855355</v>
       </c>
       <c r="D35">
-        <v>0.04595407830520617</v>
+        <v>0.4316339818708829</v>
       </c>
       <c r="E35">
-        <v>4.6</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Tasa empleo informal</t>
+          <t>Tasa de desocupación (H)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PC5</t>
+          <t>PC6</t>
         </is>
       </c>
       <c r="C36">
-        <v>0.3387277874026983</v>
+        <v>0.3052204415842137</v>
       </c>
       <c r="D36">
-        <v>0.1694527481586644</v>
+        <v>0.185027878123322</v>
       </c>
       <c r="E36">
-        <v>16.9</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>% afiliación salud (H)</t>
+          <t>Tasa empleo informal</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1134,285 +1134,12 @@
         </is>
       </c>
       <c r="C37">
-        <v>-0.05272874024214629</v>
+        <v>-3.447802520455332E-09</v>
       </c>
       <c r="D37">
-        <v>0.02779853207032516</v>
+        <v>2.090094559974211E-09</v>
       </c>
       <c r="E37">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>% afiliación salud (M)</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>PC6</t>
-        </is>
-      </c>
-      <c r="C38">
-        <v>0.1441347594534559</v>
-      </c>
-      <c r="D38">
-        <v>0.07598768175980236</v>
-      </c>
-      <c r="E38">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Tasa participación (mujeres)</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>PC6</t>
-        </is>
-      </c>
-      <c r="C39">
-        <v>0.6885622777259515</v>
-      </c>
-      <c r="D39">
-        <v>0.3630092521057712</v>
-      </c>
-      <c r="E39">
-        <v>36.3</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Brecha desocupación M–H</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>PC6</t>
-        </is>
-      </c>
-      <c r="C40">
-        <v>-0.06335944627357754</v>
-      </c>
-      <c r="D40">
-        <v>0.03340302823670109</v>
-      </c>
-      <c r="E40">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Tasa de desocupación (M)</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>PC6</t>
-        </is>
-      </c>
-      <c r="C41">
-        <v>-0.1199232395264598</v>
-      </c>
-      <c r="D41">
-        <v>0.06322339590599486</v>
-      </c>
-      <c r="E41">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Tasa de desocupación (H)</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>PC6</t>
-        </is>
-      </c>
-      <c r="C42">
-        <v>-0.148490363564094</v>
-      </c>
-      <c r="D42">
-        <v>0.07828395130842387</v>
-      </c>
-      <c r="E42">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Tasa empleo informal</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>PC6</t>
-        </is>
-      </c>
-      <c r="C43">
-        <v>-0.6796186061907142</v>
-      </c>
-      <c r="D43">
-        <v>0.3582941586129814</v>
-      </c>
-      <c r="E43">
-        <v>35.8</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>% afiliación salud (H)</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>PC7</t>
-        </is>
-      </c>
-      <c r="C44">
-        <v>-3.312371267568056E-09</v>
-      </c>
-      <c r="D44">
-        <v>2.007994687781791E-09</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>% afiliación salud (M)</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>PC7</t>
-        </is>
-      </c>
-      <c r="C45">
-        <v>-2.398347617039104E-09</v>
-      </c>
-      <c r="D45">
-        <v>1.453903830654966E-09</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Tasa participación (mujeres)</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>PC7</t>
-        </is>
-      </c>
-      <c r="C46">
-        <v>-2.853605009332109E-09</v>
-      </c>
-      <c r="D46">
-        <v>1.729885703293571E-09</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Brecha desocupación M–H</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>PC7</t>
-        </is>
-      </c>
-      <c r="C47">
-        <v>-0.6323513836681258</v>
-      </c>
-      <c r="D47">
-        <v>0.3833381335146404</v>
-      </c>
-      <c r="E47">
-        <v>38.3</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Tasa de desocupación (M)</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>PC7</t>
-        </is>
-      </c>
-      <c r="C48">
-        <v>0.7120198099214418</v>
-      </c>
-      <c r="D48">
-        <v>0.431633980742553</v>
-      </c>
-      <c r="E48">
-        <v>43.2</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Tasa de desocupación (H)</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>PC7</t>
-        </is>
-      </c>
-      <c r="C49">
-        <v>-0.3052204414066017</v>
-      </c>
-      <c r="D49">
-        <v>0.1850278774446824</v>
-      </c>
-      <c r="E49">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Tasa empleo informal</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>PC7</t>
-        </is>
-      </c>
-      <c r="C50">
-        <v>5.124192141659019E-09</v>
-      </c>
-      <c r="D50">
-        <v>3.106339769448295E-09</v>
-      </c>
-      <c r="E50">
         <v>0</v>
       </c>
     </row>
@@ -1423,7 +1150,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1448,7 +1175,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.3001779462848093</v>
+        <v>0.3473641732155202</v>
       </c>
     </row>
     <row r="3">
@@ -1458,7 +1185,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.2681148618817064</v>
+        <v>0.2327768034483199</v>
       </c>
     </row>
     <row r="4">
@@ -1468,7 +1195,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.1757406158534837</v>
+        <v>0.1910044331040121</v>
       </c>
     </row>
     <row r="5">
@@ -1478,7 +1205,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.1169438604429203</v>
+        <v>0.1299769026253408</v>
       </c>
     </row>
     <row r="6">
@@ -1488,7 +1215,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.09266606575442608</v>
+        <v>0.09887768760680676</v>
       </c>
     </row>
     <row r="7">
@@ -1498,17 +1225,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.0463566497826542</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>PC7</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>7.882517745403953E-17</v>
+        <v>9.269775840251347E-17</v>
       </c>
     </row>
   </sheetData>
@@ -1518,7 +1235,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1548,7 +1265,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>-0.6820853452516495</v>
+        <v>-0.6793163730964967</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1563,7 +1280,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>-0.6118985127676729</v>
+        <v>-0.5810623274386817</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1578,7 +1295,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>-0.3234495220933363</v>
+        <v>-0.3808760192753231</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1589,60 +1306,45 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tasa participación (mujeres)</t>
+          <t>Tasa empleo informal</t>
         </is>
       </c>
       <c r="B5">
-        <v>-0.1880250060164713</v>
+        <v>0.2216864116584823</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>% afiliación salud (M)</t>
+          <t>% afiliación salud (H)</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.1140676815034847</v>
+        <v>-0.06778562402479275</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tasa empleo informal</t>
+          <t>% afiliación salud (M)</t>
         </is>
       </c>
       <c r="B7">
-        <v>0.08333862776994275</v>
+        <v>0.04571147423898823</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>+</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>% afiliación salud (H)</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>-0.02024926649513285</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1355,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1683,7 +1385,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>-0.6297649507784306</v>
+        <v>-0.5850674043789553</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1694,15 +1396,15 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tasa participación (mujeres)</t>
+          <t>% afiliación salud (H)</t>
         </is>
       </c>
       <c r="B3">
-        <v>-0.5915429117317321</v>
+        <v>0.5408307431833098</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1415,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.3204238498834052</v>
+        <v>0.4354001382697359</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1724,58 +1426,43 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>% afiliación salud (M)</t>
+          <t>Brecha desocupación M–H</t>
         </is>
       </c>
       <c r="B5">
-        <v>0.2824004463307596</v>
+        <v>-0.3855091735178679</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>% afiliación salud (H)</t>
+          <t>Tasa de desocupación (M)</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.2440076416759556</v>
+        <v>-0.1557319495454698</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Brecha desocupación M–H</t>
+          <t>% afiliación salud (M)</t>
         </is>
       </c>
       <c r="B7">
-        <v>-0.09141783802087723</v>
+        <v>0.05248996266043719</v>
       </c>
       <c r="C7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Tasa de desocupación (M)</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>0.05616657711127834</v>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>+</t>
         </is>
